--- a/assets/excel file/Catalog Database Sheet - Error Finder.xlsx
+++ b/assets/excel file/Catalog Database Sheet - Error Finder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hao\Desktop\Hao Dong io\haodong191.github.io\assets\excel file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E7883A-B676-4F5C-8B98-293C3C361B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB9E12F-27A4-4386-9843-1D4D01ED42DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{55169C12-04F5-4AC6-B71B-75EB8F464ABA}"/>
+    <workbookView xWindow="4680" yWindow="4680" windowWidth="28800" windowHeight="15435" xr2:uid="{55169C12-04F5-4AC6-B71B-75EB8F464ABA}"/>
   </bookViews>
   <sheets>
     <sheet name="Error Finder" sheetId="1" r:id="rId1"/>
@@ -755,12 +755,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -774,6 +768,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF064E41"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,19 +825,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -845,6 +845,40 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF064E41"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1032,40 +1066,6 @@
         <scheme val="none"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1080,18 +1080,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{302BE5E8-5980-4D57-A682-3690EF8737EC}" name="Table4" displayName="Table4" ref="A2:I102" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{302BE5E8-5980-4D57-A682-3690EF8737EC}" name="Table4" displayName="Table4" ref="A2:I102" totalsRowShown="0" headerRowDxfId="0" dataDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="A2:I102" xr:uid="{302BE5E8-5980-4D57-A682-3690EF8737EC}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{7EE139CF-391F-44C7-BE29-1AAE14FDB392}" name="Vendor Part Number" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{675A810B-ABA6-4E55-961F-962AF9A25072}" name="UPC" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{1EF08C87-CAB7-4FCB-A13D-BB182DD850FA}" name="Product Name" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{FE1DDF01-0C6E-464C-A5C4-BE39B9EDE444}" name="Unit(s)" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{B826574D-DB3D-4A55-AF9D-1521B85CFF28}" name="Count" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{696D9E6D-FF86-4B36-93D0-E0F5D17D0699}" name="Weight" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{AA77930A-2103-432B-8A60-44C137855939}" name="Class" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{88C9F4D7-4D86-42FF-9C61-6AE824EE00DB}" name="QTY" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{67F6A134-39B8-4E09-87AA-FE6643A2EA49}" name="In-House Part Number" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{7EE139CF-391F-44C7-BE29-1AAE14FDB392}" name="Vendor Part Number" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{675A810B-ABA6-4E55-961F-962AF9A25072}" name="UPC" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{1EF08C87-CAB7-4FCB-A13D-BB182DD850FA}" name="Product Name" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{FE1DDF01-0C6E-464C-A5C4-BE39B9EDE444}" name="Unit(s)" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{B826574D-DB3D-4A55-AF9D-1521B85CFF28}" name="Count" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{696D9E6D-FF86-4B36-93D0-E0F5D17D0699}" name="Weight" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{AA77930A-2103-432B-8A60-44C137855939}" name="Class" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{88C9F4D7-4D86-42FF-9C61-6AE824EE00DB}" name="QTY" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{67F6A134-39B8-4E09-87AA-FE6643A2EA49}" name="In-House Part Number" dataDxfId="1">
       <calculatedColumnFormula>IF(G3="Office Supply", A3 &amp; "-OS", IF(G3="Food Product", A3 &amp; "-FP", "ERROR"))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1419,7 +1419,7 @@
   <dimension ref="A1:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+      <selection activeCell="U2" sqref="U2:AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1452,117 +1452,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>211</v>
       </c>
       <c r="L1" s="2"/>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
       <c r="T1" s="3"/>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
     </row>
     <row r="2" spans="1:27" ht="30" x14ac:dyDescent="0.4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="9" t="s">
         <v>210</v>
       </c>
       <c r="J2" s="1"/>
-      <c r="K2" s="5">
+      <c r="K2" s="4">
         <f>COUNTA(M3:M1048576) + COUNTA(U3:U1048576)</f>
         <v>10</v>
       </c>
       <c r="L2" s="1"/>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" s="4" t="s">
+      <c r="N2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="10" t="s">
         <v>198</v>
       </c>
       <c r="T2" s="3"/>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="V2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="X2" s="4" t="s">
+      <c r="V2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AA2" s="10" t="s">
         <v>198</v>
       </c>
     </row>
@@ -1598,49 +1598,49 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="6" t="str" cm="1">
+      <c r="M3" s="5" t="str" cm="1">
         <f t="array" ref="M3:S6">_xlfn._xlws.FILTER(A:G, I:I="ERROR", "No ERROR found")</f>
         <v>1234-033</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="5">
         <v>72527273102</v>
       </c>
-      <c r="O3" s="6" t="str">
+      <c r="O3" s="5" t="str">
         <v>Pig Feed</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="5">
         <v>18</v>
       </c>
-      <c r="Q3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="R3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S3" s="6" t="str">
+      <c r="Q3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="R3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="S3" s="5" t="str">
         <v>Farm Supply</v>
       </c>
       <c r="T3" s="1"/>
-      <c r="U3" s="6" t="str" cm="1">
+      <c r="U3" s="5" t="str" cm="1">
         <f t="array" ref="U3:AA8">_xlfn._xlws.FILTER(A2:G102, B2:B102="", "No blank cells found")</f>
         <v>1234-010</v>
       </c>
-      <c r="V3" s="6">
-        <v>0</v>
-      </c>
-      <c r="W3" s="6" t="str">
+      <c r="V3" s="5">
+        <v>0</v>
+      </c>
+      <c r="W3" s="5" t="str">
         <v>Filing Cabinet</v>
       </c>
-      <c r="X3" s="6">
+      <c r="X3" s="5">
         <v>20</v>
       </c>
-      <c r="Y3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="6" t="str">
+      <c r="Y3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="5" t="str">
         <v>Office Supply</v>
       </c>
     </row>
@@ -1676,47 +1676,47 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="6" t="str">
+      <c r="M4" s="5" t="str">
         <v>1234-042</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="5">
         <v>72527273111</v>
       </c>
-      <c r="O4" s="6" t="str">
+      <c r="O4" s="5" t="str">
         <v>Hot Wheel</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="5">
         <v>36</v>
       </c>
-      <c r="Q4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="S4" s="6" t="str">
+      <c r="Q4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S4" s="5" t="str">
         <v>Toy</v>
       </c>
       <c r="T4" s="1"/>
-      <c r="U4" s="6" t="str">
+      <c r="U4" s="5" t="str">
         <v>1234-024</v>
       </c>
-      <c r="V4" s="6">
-        <v>0</v>
-      </c>
-      <c r="W4" s="6" t="str">
+      <c r="V4" s="5">
+        <v>0</v>
+      </c>
+      <c r="W4" s="5" t="str">
         <v>Desk Mat</v>
       </c>
-      <c r="X4" s="6">
+      <c r="X4" s="5">
         <v>48</v>
       </c>
-      <c r="Y4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="6" t="str">
+      <c r="Y4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="5" t="str">
         <v>Office Supply</v>
       </c>
     </row>
@@ -1752,47 +1752,47 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="6" t="str">
+      <c r="M5" s="5" t="str">
         <v>1234-054</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="5">
         <v>72527273123</v>
       </c>
-      <c r="O5" s="6" t="str">
+      <c r="O5" s="5" t="str">
         <v>Nikon T5i</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="5">
         <v>12</v>
       </c>
-      <c r="Q5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R5" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="S5" s="6" t="str">
+      <c r="Q5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="R5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5" s="5" t="str">
         <v>Camera</v>
       </c>
       <c r="T5" s="1"/>
-      <c r="U5" s="6" t="str">
+      <c r="U5" s="5" t="str">
         <v>1234-035</v>
       </c>
-      <c r="V5" s="6">
-        <v>0</v>
-      </c>
-      <c r="W5" s="6" t="str">
+      <c r="V5" s="5">
+        <v>0</v>
+      </c>
+      <c r="W5" s="5" t="str">
         <v>Mechanical Keyboard</v>
       </c>
-      <c r="X5" s="6">
+      <c r="X5" s="5">
         <v>22</v>
       </c>
-      <c r="Y5" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="6" t="str">
+      <c r="Y5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="5" t="str">
         <v>Office Supply</v>
       </c>
     </row>
@@ -1828,47 +1828,47 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="6" t="str">
+      <c r="M6" s="5" t="str">
         <v>1234-069</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="5">
         <v>72527273138</v>
       </c>
-      <c r="O6" s="6" t="str">
+      <c r="O6" s="5" t="str">
         <v>Dawn Dish Soap</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="5">
         <v>42</v>
       </c>
-      <c r="Q6" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="S6" s="6" t="str">
+      <c r="Q6" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="R6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" s="5" t="str">
         <v>Cleaning Supply</v>
       </c>
       <c r="T6" s="1"/>
-      <c r="U6" s="6" t="str">
+      <c r="U6" s="5" t="str">
         <v>1234-051</v>
       </c>
-      <c r="V6" s="6">
-        <v>0</v>
-      </c>
-      <c r="W6" s="6" t="str">
+      <c r="V6" s="5">
+        <v>0</v>
+      </c>
+      <c r="W6" s="5" t="str">
         <v>Binder Folder</v>
       </c>
-      <c r="X6" s="6">
+      <c r="X6" s="5">
         <v>6</v>
       </c>
-      <c r="Y6" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="6" t="str">
+      <c r="Y6" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="5" t="str">
         <v>Office Supply</v>
       </c>
     </row>
@@ -1912,25 +1912,25 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
-      <c r="U7" s="6" t="str">
+      <c r="U7" s="5" t="str">
         <v>1234-065</v>
       </c>
-      <c r="V7" s="6">
-        <v>0</v>
-      </c>
-      <c r="W7" s="6" t="str">
+      <c r="V7" s="5">
+        <v>0</v>
+      </c>
+      <c r="W7" s="5" t="str">
         <v>All-Purpose Flour</v>
       </c>
-      <c r="X7" s="6">
+      <c r="X7" s="5">
         <v>34</v>
       </c>
-      <c r="Y7" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="6" t="str">
+      <c r="Y7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="5" t="str">
         <v>Food Product</v>
       </c>
     </row>
@@ -1974,25 +1974,25 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-      <c r="U8" s="6" t="str">
+      <c r="U8" s="5" t="str">
         <v>1234-082</v>
       </c>
-      <c r="V8" s="6">
-        <v>0</v>
-      </c>
-      <c r="W8" s="6" t="str">
+      <c r="V8" s="5">
+        <v>0</v>
+      </c>
+      <c r="W8" s="5" t="str">
         <v>Yogurt Cups</v>
       </c>
-      <c r="X8" s="6">
+      <c r="X8" s="5">
         <v>20</v>
       </c>
-      <c r="Y8" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="6" t="str">
+      <c r="Y8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="5" t="str">
         <v>Food Product</v>
       </c>
     </row>
